--- a/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
@@ -1245,7 +1245,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1318,14 +1318,10 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1375,14 +1371,10 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1403,7 +1395,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1460,7 +1452,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1488,13 +1480,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1534,13 +1525,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1563,12 +1553,13 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1612,12 +1603,13 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1640,7 +1632,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1689,7 +1681,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1721,7 +1713,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1771,7 +1763,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1803,7 +1795,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1852,7 +1844,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1884,7 +1876,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1941,7 +1933,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1973,7 +1965,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2026,13 +2018,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -2059,7 +2050,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2112,12 +2103,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2144,7 +2136,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2197,7 +2189,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2229,7 +2221,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2279,9 +2271,21 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2307,7 +2311,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2380,7 +2384,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2431,11 +2435,7 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2455,9 +2455,21 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -2491,7 +2503,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2524,7 +2536,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>METRO #887 +RX, GREENFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2534,11 +2546,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2565,7 +2573,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>4279 S 76TH STREET</t>
+          <t>METRO #887 +RX, GREENFIELD</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2581,7 +2589,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2614,7 +2622,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
+          <t>4279 S 76TH STREET</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2630,7 +2638,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>PICK #880 +RX, GLENDALE-SILVER SPRING</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2659,7 +2667,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>*Carlie / Tanner 5:15 am Grafton meet</t>
+          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2675,7 +2683,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1735 W SILVER SPRING</t>
+          <t>PICK #880 +RX, GLENDALE - SILVER SPRING</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2702,7 +2710,11 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>*Carlie / Tanner 5:15 am Grafton meet</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2716,7 +2728,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
+          <t>1735 W SILVER SPRING</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2742,21 +2754,9 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2767,7 +2767,11 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2793,15 +2797,19 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2811,21 +2819,9 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2846,19 +2842,15 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>w/ Tanner</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2870,15 +2862,19 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2911,15 +2907,19 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>w/ Tanner</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -2927,12 +2927,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2964,12 +2964,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2992,19 +2992,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -3033,19 +3029,15 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3061,15 +3053,19 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -3090,15 +3086,19 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
@@ -3118,12 +3118,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3147,12 +3147,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3171,12 +3171,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3200,19 +3200,15 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -3232,12 +3228,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3261,15 +3257,19 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -3289,19 +3289,15 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3322,19 +3318,15 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
@@ -3350,12 +3342,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3383,17 +3375,17 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3411,18 +3403,17 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -3445,12 +3436,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3477,17 +3468,18 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3510,12 +3502,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3542,12 +3534,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3575,12 +3567,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3607,12 +3599,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3640,12 +3632,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3670,9 +3662,21 @@
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3693,12 +3697,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3747,12 +3751,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3778,11 +3782,7 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3802,9 +3802,21 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
@@ -3826,7 +3838,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3871,7 +3883,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>ROETTGERS GLENDALE ARC</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3904,7 +3916,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>525 W SILVER SPRING DR</t>
+          <t>ROETTGERS GLENDALE ARC</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3937,7 +3949,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/8jXd2GwteuVWVutZ6</t>
+          <t>525 W SILVER SPRING DR</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3972,7 +3984,11 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/8jXd2GwteuVWVutZ6</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -4004,21 +4020,9 @@
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>White Camry availabe, Equip</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -4051,15 +4055,19 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>White Camry availabe, Equip</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -4092,12 +4100,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4131,8 +4139,16 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
@@ -2269,7 +2269,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>*until 11:00</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>

--- a/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
@@ -977,7 +977,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>FEW RESETS-</t>
+          <t xml:space="preserve">FEW RESETS-REMAPPED </t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
@@ -546,24 +546,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -579,20 +619,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -624,8 +688,16 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
@@ -1289,7 +1289,7 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+Optima</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA81"/>
+  <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2277,12 +2277,13 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2370,13 +2371,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2444,12 +2444,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2514,22 +2515,9 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2618,7 +2606,11 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2657,7 +2649,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2706,7 +2698,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #415 +RX, WAUKESHA - SUNSET WEST</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2751,7 +2743,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PICK #415 +RX, WAUKESHA - SUNSET WEST</t>
+          <t>1220 WEST SUNSET DR</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2796,7 +2788,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1220 WEST SUNSET DR</t>
+          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2837,7 +2829,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2890,7 +2882,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>*Carlie / Tanner 5:00 am Grafton meet</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2929,11 +2921,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>*Carlie / Tanner 5:00 am Grafton meet</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
@@ -2997,9 +2985,21 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3052,19 +3052,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3117,15 +3113,19 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>w/ Tanner</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3178,19 +3178,15 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>w/ Tanner</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3235,15 +3231,19 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3288,17 +3288,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Until 11:00</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -3349,19 +3349,15 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3406,12 +3402,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3467,15 +3463,19 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3528,17 +3528,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3594,12 +3594,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3659,12 +3659,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3724,17 +3724,18 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -3789,18 +3790,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3843,17 +3843,18 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3896,18 +3897,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3940,21 +3940,9 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
@@ -4019,7 +4007,11 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -4054,7 +4046,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4091,7 +4083,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4124,7 +4116,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1102, HARTFORD</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4169,7 +4161,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1102, HARTFORD</t>
+          <t>1640 E SUMNER ST, SUITE 100</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4210,7 +4202,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1640 E SUMNER ST, SUITE 100</t>
+          <t>https://goo.gl/maps/umuyQZyC8FT2</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4249,11 +4241,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/umuyQZyC8FT2</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4281,9 +4269,21 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -4310,21 +4310,9 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4381,7 +4369,11 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4412,7 +4404,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4445,7 +4437,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4478,7 +4470,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4511,7 +4503,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>ROETTGERS EAST TROY ARC</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4544,7 +4536,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>ROETTGERS EAST TROY ARC</t>
+          <t>2097 DIVISION STREET</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4577,7 +4569,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2097 DIVISION STREET</t>
+          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4608,11 +4600,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
-        </is>
-      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -4640,9 +4628,22 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -4671,20 +4672,15 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4713,12 +4709,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4735,43 +4731,6 @@
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
@@ -1317,7 +1317,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -3195,10 +3195,14 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Milwaukee Schedule.xlsx
@@ -1178,7 +1178,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
